--- a/raw_data/weekly incidence 2012, 2013.xlsx
+++ b/raw_data/weekly incidence 2012, 2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Week 1</t>
   </si>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -919,7 +919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -927,7 +927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -935,7 +935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -943,15 +943,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <f>SUM(B1:B52)</f>
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -959,7 +963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -967,7 +971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -975,7 +979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -983,7 +987,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -991,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -1053,6 +1057,126 @@
       </c>
       <c r="B65">
         <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/weekly incidence 2012, 2013.xlsx
+++ b/raw_data/weekly incidence 2012, 2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Week 1</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Week 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;--Alternative Data </t>
   </si>
 </sst>
 </file>
@@ -523,16 +526,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -919,7 +923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -927,7 +931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -935,7 +939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -943,239 +947,322 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>46</v>
       </c>
-      <c r="C52">
-        <f>SUM(B1:B52)</f>
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59">
         <v>199</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60">
         <v>307</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61">
         <v>309</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62">
         <v>314</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>10</v>
       </c>
       <c r="B63">
         <v>392</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64">
         <v>375</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65">
         <v>375</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66">
         <v>460</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67">
         <v>495</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
       <c r="B68">
         <v>534</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>17</v>
       </c>
       <c r="B69">
         <v>526</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>18</v>
       </c>
       <c r="B70">
         <v>366</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
       <c r="B71">
         <v>587</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72">
         <v>571</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
       <c r="B73">
         <v>673</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>22</v>
       </c>
       <c r="B74">
         <v>682</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>23</v>
       </c>
       <c r="B75">
         <v>517</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>24</v>
       </c>
       <c r="B76">
         <v>550</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>25</v>
       </c>
       <c r="B77">
         <v>504</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>26</v>
       </c>
       <c r="B78">
         <v>359</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>27</v>
       </c>
       <c r="B79">
         <v>363</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>28</v>
       </c>
       <c r="B80">
+        <v>290</v>
+      </c>
+      <c r="C80">
         <v>290</v>
       </c>
     </row>
